--- a/data/trans_orig/IP36BS1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP36BS1-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{684B18DE-172D-498F-89D8-30CD7799B8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C23DA1-641C-450A-80B4-5542A82E63DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9896D39B-F792-4311-B9CF-2AACBAB045E8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFC6E8D9-CB74-4CEC-9165-EBB4956B86AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="590">
   <si>
     <t>Adultos según el tipo de pensión que perciben en 2007 (Tasa respuesta: 3,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>otros</t>
@@ -98,7 +98,7 @@
     <t>Jubilacion</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -116,1693 +116,1699 @@
     <t>14,96%</t>
   </si>
   <si>
-    <t>66,19%</t>
+    <t>63,16%</t>
   </si>
   <si>
     <t>30,07%</t>
   </si>
   <si>
-    <t>79,55%</t>
+    <t>79,61%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
   </si>
   <si>
     <t>32,07%</t>
   </si>
   <si>
-    <t>68,42%</t>
+    <t>81,27%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según el tipo de pensión que perciben en 2012 (Tasa respuesta: 5,38%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>Adultos según el tipo de pensión que perciben en 2016 (Tasa respuesta: 5,17%)</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según el tipo de pensión que perciben en 2012 (Tasa respuesta: 5,38%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>Adultos según el tipo de pensión que perciben en 2023 (Tasa respuesta: 0,68%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
   </si>
   <si>
     <t>26,94%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>Adultos según el tipo de pensión que perciben en 2015 (Tasa respuesta: 5,17%)</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>Adultos según el tipo de pensión que perciben en 2023 (Tasa respuesta: 0,68%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>74,42%</t>
+    <t>72,51%</t>
   </si>
   <si>
     <t>25,27%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>83,17%</t>
+    <t>54,0%</t>
   </si>
   <si>
     <t>21,47%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
   </si>
   <si>
     <t>25,4%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
   </si>
   <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>83,37%</t>
+    <t>86,13%</t>
   </si>
   <si>
     <t>26,32%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C113822C-217D-4C9D-B1C9-C5A968E04937}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490171B7-CDD1-4665-8DA2-D5771AE5945C}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4164,7 +4170,7 @@
         <v>20</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,7 +4191,7 @@
         <v>21</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -4236,7 +4242,7 @@
         <v>21</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -4287,7 +4293,7 @@
         <v>21</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -4338,7 +4344,7 @@
         <v>21</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -4383,13 +4389,13 @@
         <v>700</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -4398,13 +4404,13 @@
         <v>873</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M45" s="7">
         <v>2</v>
@@ -4413,13 +4419,13 @@
         <v>1573</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4440,13 @@
         <v>644</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -4449,13 +4455,13 @@
         <v>3100</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M46" s="7">
         <v>5</v>
@@ -4464,13 +4470,13 @@
         <v>3744</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4491,13 @@
         <v>2674</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
@@ -4500,13 +4506,13 @@
         <v>4941</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M47" s="7">
         <v>10</v>
@@ -4515,13 +4521,13 @@
         <v>7616</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,28 +4595,28 @@
         <v>685</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="7" t="s">
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -4619,13 +4625,13 @@
         <v>685</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,37 +4652,37 @@
         <v>21</v>
       </c>
       <c r="G50" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,7 +4703,7 @@
         <v>21</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H51" s="7">
         <v>2</v>
@@ -4706,13 +4712,13 @@
         <v>1252</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M51" s="7">
         <v>2</v>
@@ -4721,13 +4727,13 @@
         <v>1252</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,37 +4754,37 @@
         <v>21</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,37 +4805,37 @@
         <v>21</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4850,13 @@
         <v>4490</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H54" s="7">
         <v>6</v>
@@ -4859,13 +4865,13 @@
         <v>3617</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M54" s="7">
         <v>13</v>
@@ -4874,13 +4880,13 @@
         <v>8106</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4901,13 @@
         <v>6989</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H55" s="7">
         <v>12</v>
@@ -4910,13 +4916,13 @@
         <v>8121</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M55" s="7">
         <v>23</v>
@@ -4925,13 +4931,13 @@
         <v>15110</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4952,13 @@
         <v>9961</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H56" s="7">
         <v>13</v>
@@ -4961,13 +4967,13 @@
         <v>9509</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M56" s="7">
         <v>28</v>
@@ -4976,13 +4982,13 @@
         <v>19469</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,7 +5044,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5059,7 +5065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F8A38A-7F86-4AF6-B029-9FEAB6BC9B30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3502EFD-1DC2-4E7C-9238-6EFA202B2010}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5076,7 +5082,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5202,7 +5208,7 @@
         <v>21</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5217,7 +5223,7 @@
         <v>21</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,7 +5254,7 @@
         <v>39</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>45</v>
@@ -5263,7 +5269,7 @@
         <v>39</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>45</v>
@@ -5300,7 +5306,7 @@
         <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5315,7 +5321,7 @@
         <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,7 +5355,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5364,7 +5370,7 @@
         <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,7 +5404,7 @@
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5413,7 +5419,7 @@
         <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,7 +5453,7 @@
         <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5462,7 +5468,7 @@
         <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,7 +5502,7 @@
         <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5511,7 +5517,7 @@
         <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,7 +5551,7 @@
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5560,7 +5566,7 @@
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,7 +5653,7 @@
         <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5662,7 +5668,7 @@
         <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5683,13 @@
         <v>2683</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5692,7 +5698,7 @@
         <v>1639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -5707,13 +5713,13 @@
         <v>4321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5734,13 @@
         <v>683</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5749,7 +5755,7 @@
         <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -5758,13 +5764,13 @@
         <v>682</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,7 +5806,7 @@
         <v>21</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5815,7 +5821,7 @@
         <v>21</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,7 +5857,7 @@
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5866,7 +5872,7 @@
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,13 +5887,13 @@
         <v>1304</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -5896,13 +5902,13 @@
         <v>683</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -5911,13 +5917,13 @@
         <v>1987</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,13 +5938,13 @@
         <v>1339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5953,7 +5959,7 @@
         <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5962,13 +5968,13 @@
         <v>1339</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,13 +5989,13 @@
         <v>645</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5998,13 +6004,13 @@
         <v>916</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6013,13 +6019,13 @@
         <v>1561</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,7 +6099,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -6102,13 +6108,13 @@
         <v>1125</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -6117,13 +6123,13 @@
         <v>1125</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,13 +6144,13 @@
         <v>7513</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -6153,13 +6159,13 @@
         <v>8653</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -6168,13 +6174,13 @@
         <v>16166</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,7 +6201,7 @@
         <v>21</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6210,7 +6216,7 @@
         <v>21</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6225,7 +6231,7 @@
         <v>21</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,7 +6252,7 @@
         <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6261,7 +6267,7 @@
         <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6276,7 +6282,7 @@
         <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,7 +6303,7 @@
         <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6312,7 +6318,7 @@
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6327,7 +6333,7 @@
         <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,13 +6348,13 @@
         <v>2226</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -6357,13 +6363,13 @@
         <v>1819</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -6372,13 +6378,13 @@
         <v>4045</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6399,13 @@
         <v>652</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -6408,13 +6414,13 @@
         <v>637</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -6423,13 +6429,13 @@
         <v>1290</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6450,13 @@
         <v>1370</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6459,13 +6465,13 @@
         <v>1903</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -6474,13 +6480,13 @@
         <v>3273</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6554,13 @@
         <v>1025</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -6563,13 +6569,13 @@
         <v>1297</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -6578,13 +6584,13 @@
         <v>2321</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6605,13 @@
         <v>4677</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -6614,13 +6620,13 @@
         <v>2463</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -6629,13 +6635,13 @@
         <v>7140</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,7 +6662,7 @@
         <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6671,7 +6677,7 @@
         <v>21</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6686,7 +6692,7 @@
         <v>21</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,7 +6713,7 @@
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6722,7 +6728,7 @@
         <v>21</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6737,7 +6743,7 @@
         <v>21</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6758,7 +6764,7 @@
         <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6773,7 +6779,7 @@
         <v>21</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6788,7 +6794,7 @@
         <v>21</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6803,13 +6809,13 @@
         <v>1255</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -6818,13 +6824,13 @@
         <v>1982</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -6833,13 +6839,13 @@
         <v>3237</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,13 +6860,13 @@
         <v>2101</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>137</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -6869,13 +6875,13 @@
         <v>1812</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="M37" s="7">
         <v>7</v>
@@ -6884,13 +6890,13 @@
         <v>3913</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,13 +6911,13 @@
         <v>1787</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6920,13 +6926,13 @@
         <v>443</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6935,13 +6941,13 @@
         <v>2230</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,13 +7015,13 @@
         <v>1388</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -7030,7 +7036,7 @@
         <v>21</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -7039,13 +7045,13 @@
         <v>1388</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,13 +7066,13 @@
         <v>2835</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -7075,13 +7081,13 @@
         <v>3379</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M41" s="7">
         <v>8</v>
@@ -7090,13 +7096,13 @@
         <v>6215</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,7 +7123,7 @@
         <v>21</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -7132,7 +7138,7 @@
         <v>21</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -7147,7 +7153,7 @@
         <v>21</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,7 +7174,7 @@
         <v>21</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -7183,7 +7189,7 @@
         <v>21</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -7198,7 +7204,7 @@
         <v>21</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7219,7 +7225,7 @@
         <v>21</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -7234,7 +7240,7 @@
         <v>21</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -7249,7 +7255,7 @@
         <v>21</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,13 +7270,13 @@
         <v>2169</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H45" s="7">
         <v>3</v>
@@ -7279,13 +7285,13 @@
         <v>2778</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M45" s="7">
         <v>6</v>
@@ -7294,13 +7300,13 @@
         <v>4947</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>201</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,13 +7321,13 @@
         <v>2705</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -7330,13 +7336,13 @@
         <v>2809</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M46" s="7">
         <v>8</v>
@@ -7345,13 +7351,13 @@
         <v>5514</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,13 +7372,13 @@
         <v>1986</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -7381,13 +7387,13 @@
         <v>1435</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -7396,13 +7402,13 @@
         <v>3422</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>156</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,13 +7476,13 @@
         <v>2413</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H49" s="7">
         <v>4</v>
@@ -7485,13 +7491,13 @@
         <v>2422</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M49" s="7">
         <v>7</v>
@@ -7500,13 +7506,13 @@
         <v>4835</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7521,13 +7527,13 @@
         <v>17707</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H50" s="7">
         <v>25</v>
@@ -7536,13 +7542,13 @@
         <v>16893</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M50" s="7">
         <v>50</v>
@@ -7551,13 +7557,13 @@
         <v>34601</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,13 +7578,13 @@
         <v>682</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -7593,7 +7599,7 @@
         <v>21</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -7602,13 +7608,13 @@
         <v>683</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,7 +7635,7 @@
         <v>21</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -7644,22 +7650,22 @@
         <v>21</v>
       </c>
       <c r="L52" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,7 +7686,7 @@
         <v>21</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -7695,22 +7701,22 @@
         <v>21</v>
       </c>
       <c r="L53" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,13 +7731,13 @@
         <v>6954</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H54" s="7">
         <v>10</v>
@@ -7740,13 +7746,13 @@
         <v>7262</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M54" s="7">
         <v>20</v>
@@ -7755,13 +7761,13 @@
         <v>14216</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7779,10 +7785,10 @@
         <v>52</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H55" s="7">
         <v>8</v>
@@ -7791,13 +7797,13 @@
         <v>5258</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M55" s="7">
         <v>19</v>
@@ -7806,13 +7812,13 @@
         <v>12056</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7827,13 +7833,13 @@
         <v>5790</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H56" s="7">
         <v>7</v>
@@ -7842,13 +7848,13 @@
         <v>4697</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M56" s="7">
         <v>16</v>
@@ -7857,13 +7863,13 @@
         <v>10486</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,7 +7925,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -7940,7 +7946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE026F0-ACAF-4129-8042-38D5AF6FCF1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4043F611-2905-489A-964C-05499310FB98}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7957,7 +7963,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8471,13 +8477,13 @@
         <v>770</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8492,7 +8498,7 @@
         <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -8501,13 +8507,13 @@
         <v>770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8528,7 +8534,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8543,7 +8549,7 @@
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -8552,13 +8558,13 @@
         <v>1330</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8579,7 +8585,7 @@
         <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8594,7 +8600,7 @@
         <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8630,7 +8636,7 @@
         <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8645,7 +8651,7 @@
         <v>21</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8681,7 +8687,7 @@
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8696,7 +8702,7 @@
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8726,13 +8732,13 @@
         <v>677</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>376</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -8741,10 +8747,10 @@
         <v>2206</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>39</v>
@@ -8756,13 +8762,13 @@
         <v>2882</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8783,7 +8789,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8798,7 +8804,7 @@
         <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -8828,13 +8834,13 @@
         <v>2279</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -8843,13 +8849,13 @@
         <v>662</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>39</v>
+        <v>384</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -8858,13 +8864,13 @@
         <v>2942</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8932,13 +8938,13 @@
         <v>717</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -8947,13 +8953,13 @@
         <v>1168</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -8962,13 +8968,13 @@
         <v>1885</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8983,13 +8989,13 @@
         <v>2594</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -8998,13 +9004,13 @@
         <v>3143</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -9013,13 +9019,13 @@
         <v>5738</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9055,7 +9061,7 @@
         <v>21</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -9070,7 +9076,7 @@
         <v>21</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9106,7 +9112,7 @@
         <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -9121,7 +9127,7 @@
         <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9157,7 +9163,7 @@
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9172,7 +9178,7 @@
         <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9187,13 +9193,13 @@
         <v>2610</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -9202,13 +9208,13 @@
         <v>4872</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M27" s="7">
         <v>12</v>
@@ -9217,13 +9223,13 @@
         <v>7482</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9238,14 +9244,14 @@
         <v>2821</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>417</v>
-      </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
@@ -9259,7 +9265,7 @@
         <v>21</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -9268,13 +9274,13 @@
         <v>2821</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9289,13 +9295,13 @@
         <v>4148</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -9304,13 +9310,13 @@
         <v>1332</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -9319,13 +9325,13 @@
         <v>5480</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9399,7 +9405,7 @@
         <v>21</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9429,7 +9435,7 @@
         <v>21</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9444,13 +9450,13 @@
         <v>4428</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -9459,13 +9465,13 @@
         <v>3256</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -9474,13 +9480,13 @@
         <v>7683</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9501,7 +9507,7 @@
         <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9531,7 +9537,7 @@
         <v>21</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9552,7 +9558,7 @@
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9582,7 +9588,7 @@
         <v>21</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9603,7 +9609,7 @@
         <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9633,7 +9639,7 @@
         <v>21</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9654,7 +9660,7 @@
         <v>21</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9684,7 +9690,7 @@
         <v>21</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9699,13 +9705,13 @@
         <v>700</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>438</v>
+        <v>51</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -9714,13 +9720,13 @@
         <v>1141</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -9729,13 +9735,13 @@
         <v>1840</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9750,13 +9756,13 @@
         <v>6428</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -9765,13 +9771,13 @@
         <v>2565</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M38" s="7">
         <v>12</v>
@@ -9780,13 +9786,13 @@
         <v>8993</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9860,7 +9866,7 @@
         <v>21</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -9875,7 +9881,7 @@
         <v>21</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -9890,7 +9896,7 @@
         <v>21</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9905,13 +9911,13 @@
         <v>5757</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -9920,13 +9926,13 @@
         <v>2836</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M41" s="7">
         <v>12</v>
@@ -9935,13 +9941,13 @@
         <v>8593</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9962,7 +9968,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -9977,7 +9983,7 @@
         <v>21</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -9986,13 +9992,13 @@
         <v>763</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10007,13 +10013,13 @@
         <v>666</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -10028,7 +10034,7 @@
         <v>21</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -10037,13 +10043,13 @@
         <v>666</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10064,7 +10070,7 @@
         <v>20</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -10079,7 +10085,7 @@
         <v>21</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -10088,13 +10094,13 @@
         <v>820</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>471</v>
+        <v>246</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10124,13 +10130,13 @@
         <v>2651</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M45" s="7">
         <v>6</v>
@@ -10139,13 +10145,13 @@
         <v>2651</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10160,13 +10166,13 @@
         <v>2707</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -10175,13 +10181,13 @@
         <v>675</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>140</v>
+        <v>477</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>385</v>
+        <v>478</v>
       </c>
       <c r="M46" s="7">
         <v>4</v>
@@ -10190,13 +10196,13 @@
         <v>3381</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="P46" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10211,13 +10217,13 @@
         <v>4461</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
@@ -10226,13 +10232,13 @@
         <v>2158</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M47" s="7">
         <v>9</v>
@@ -10241,13 +10247,13 @@
         <v>6618</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10315,13 +10321,13 @@
         <v>1487</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>491</v>
+        <v>176</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
@@ -10330,13 +10336,13 @@
         <v>1168</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>492</v>
+        <v>422</v>
       </c>
       <c r="M49" s="7">
         <v>4</v>
@@ -10345,13 +10351,13 @@
         <v>2655</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10366,13 +10372,13 @@
         <v>14110</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="H50" s="7">
         <v>15</v>
@@ -10381,13 +10387,13 @@
         <v>9235</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="M50" s="7">
         <v>36</v>
@@ -10396,13 +10402,13 @@
         <v>23344</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10417,28 +10423,28 @@
         <v>763</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -10447,13 +10453,13 @@
         <v>763</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10468,14 +10474,14 @@
         <v>666</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>510</v>
-      </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
@@ -10489,7 +10495,7 @@
         <v>21</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -10498,13 +10504,13 @@
         <v>666</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10519,14 +10525,14 @@
         <v>820</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>514</v>
-      </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
@@ -10540,7 +10546,7 @@
         <v>21</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -10549,13 +10555,13 @@
         <v>820</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10570,7 +10576,7 @@
         <v>3287</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>35</v>
+        <v>516</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>517</v>
@@ -10603,10 +10609,10 @@
         <v>521</v>
       </c>
       <c r="P54" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10639,10 +10645,10 @@
         <v>526</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>20</v>
+        <v>527</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M55" s="7">
         <v>12</v>
@@ -10651,13 +10657,13 @@
         <v>8042</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>223</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10672,13 +10678,13 @@
         <v>17317</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H56" s="7">
         <v>10</v>
@@ -10687,13 +10693,13 @@
         <v>6716</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>401</v>
+        <v>536</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M56" s="7">
         <v>33</v>
@@ -10702,13 +10708,13 @@
         <v>24033</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>536</v>
+        <v>302</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10764,7 +10770,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -10785,7 +10791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64653088-0B29-4BDC-A179-ED85F1F746A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611C5D51-3BFE-48B2-AB30-41C13E64D1C2}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10802,7 +10808,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10928,7 +10934,7 @@
         <v>21</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -10943,7 +10949,7 @@
         <v>21</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10977,7 +10983,7 @@
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -10992,7 +10998,7 @@
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -11026,7 +11032,7 @@
         <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -11041,7 +11047,7 @@
         <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -11075,7 +11081,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -11090,7 +11096,7 @@
         <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11124,7 +11130,7 @@
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -11139,7 +11145,7 @@
         <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11170,7 +11176,7 @@
         <v>39</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>45</v>
@@ -11185,7 +11191,7 @@
         <v>39</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>45</v>
@@ -11222,7 +11228,7 @@
         <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -11237,7 +11243,7 @@
         <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11271,7 +11277,7 @@
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -11286,7 +11292,7 @@
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11358,7 +11364,7 @@
         <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -11373,7 +11379,7 @@
         <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -11388,7 +11394,7 @@
         <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -11409,7 +11415,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -11424,7 +11430,7 @@
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -11439,7 +11445,7 @@
         <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11460,7 +11466,7 @@
         <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -11475,7 +11481,7 @@
         <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -11490,7 +11496,7 @@
         <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -11511,7 +11517,7 @@
         <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -11526,7 +11532,7 @@
         <v>21</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -11541,7 +11547,7 @@
         <v>21</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11562,7 +11568,7 @@
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -11577,7 +11583,7 @@
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -11592,7 +11598,7 @@
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11613,7 +11619,7 @@
         <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -11625,7 +11631,7 @@
         <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>45</v>
@@ -11637,7 +11643,7 @@
         <v>1099</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>20</v>
@@ -11664,7 +11670,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -11679,7 +11685,7 @@
         <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -11694,7 +11700,7 @@
         <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11712,7 +11718,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>45</v>
@@ -11730,7 +11736,7 @@
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -11739,7 +11745,7 @@
         <v>366</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
@@ -11819,7 +11825,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -11847,7 +11853,7 @@
         <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11868,7 +11874,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -11896,7 +11902,7 @@
         <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11911,13 +11917,13 @@
         <v>1435</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>543</v>
+        <v>39</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -11939,13 +11945,13 @@
         <v>1435</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>543</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11966,7 +11972,7 @@
         <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -11994,7 +12000,7 @@
         <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -12009,13 +12015,13 @@
         <v>352</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -12037,13 +12043,13 @@
         <v>352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12058,13 +12064,13 @@
         <v>657</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -12086,13 +12092,13 @@
         <v>657</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -12113,7 +12119,7 @@
         <v>21</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -12141,7 +12147,7 @@
         <v>21</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -12156,13 +12162,13 @@
         <v>586</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -12184,13 +12190,13 @@
         <v>586</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12262,7 +12268,7 @@
         <v>21</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -12277,7 +12283,7 @@
         <v>21</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -12292,7 +12298,7 @@
         <v>21</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12313,7 +12319,7 @@
         <v>21</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -12328,7 +12334,7 @@
         <v>21</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -12343,7 +12349,7 @@
         <v>21</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12361,7 +12367,7 @@
         <v>39</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>45</v>
@@ -12379,7 +12385,7 @@
         <v>21</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -12388,7 +12394,7 @@
         <v>704</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>20</v>
@@ -12415,7 +12421,7 @@
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -12430,7 +12436,7 @@
         <v>21</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -12445,7 +12451,7 @@
         <v>21</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12466,7 +12472,7 @@
         <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -12478,7 +12484,7 @@
         <v>39</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>45</v>
@@ -12490,7 +12496,7 @@
         <v>800</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>20</v>
@@ -12517,7 +12523,7 @@
         <v>21</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -12532,7 +12538,7 @@
         <v>21</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -12547,7 +12553,7 @@
         <v>21</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12568,7 +12574,7 @@
         <v>21</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -12583,7 +12589,7 @@
         <v>21</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -12598,7 +12604,7 @@
         <v>21</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12619,7 +12625,7 @@
         <v>21</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -12634,7 +12640,7 @@
         <v>21</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -12649,7 +12655,7 @@
         <v>21</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12723,7 +12729,7 @@
         <v>21</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -12738,7 +12744,7 @@
         <v>21</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -12753,7 +12759,7 @@
         <v>21</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12774,7 +12780,7 @@
         <v>21</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -12789,7 +12795,7 @@
         <v>21</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -12804,7 +12810,7 @@
         <v>21</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12825,7 +12831,7 @@
         <v>21</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -12834,7 +12840,7 @@
         <v>783</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>20</v>
@@ -12849,13 +12855,13 @@
         <v>783</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12876,7 +12882,7 @@
         <v>21</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -12891,7 +12897,7 @@
         <v>21</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -12906,7 +12912,7 @@
         <v>21</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12921,7 +12927,7 @@
         <v>1590</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>20</v>
@@ -12942,7 +12948,7 @@
         <v>21</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -12951,13 +12957,13 @@
         <v>1590</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12978,7 +12984,7 @@
         <v>21</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -12993,7 +12999,7 @@
         <v>21</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -13008,7 +13014,7 @@
         <v>21</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -13029,7 +13035,7 @@
         <v>21</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -13044,7 +13050,7 @@
         <v>21</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -13059,7 +13065,7 @@
         <v>21</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13074,7 +13080,7 @@
         <v>661</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>20</v>
@@ -13089,7 +13095,7 @@
         <v>1242</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>20</v>
@@ -13104,7 +13110,7 @@
         <v>1903</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>20</v>
@@ -13184,7 +13190,7 @@
         <v>21</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -13199,7 +13205,7 @@
         <v>21</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -13214,7 +13220,7 @@
         <v>21</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13235,7 +13241,7 @@
         <v>21</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -13250,7 +13256,7 @@
         <v>21</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -13265,7 +13271,7 @@
         <v>21</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -13280,13 +13286,13 @@
         <v>2139</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -13295,13 +13301,13 @@
         <v>783</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M51" s="7">
         <v>3</v>
@@ -13310,13 +13316,13 @@
         <v>2923</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>209</v>
+        <v>568</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -13337,7 +13343,7 @@
         <v>21</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -13352,7 +13358,7 @@
         <v>21</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -13367,7 +13373,7 @@
         <v>21</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -13382,13 +13388,13 @@
         <v>1941</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -13397,13 +13403,13 @@
         <v>800</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M53" s="7">
         <v>3</v>
@@ -13412,13 +13418,13 @@
         <v>2741</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -13433,13 +13439,13 @@
         <v>657</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="H54" s="7">
         <v>2</v>
@@ -13448,13 +13454,13 @@
         <v>1672</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>576</v>
+        <v>39</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -13463,13 +13469,13 @@
         <v>2330</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13490,7 +13496,7 @@
         <v>21</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -13505,7 +13511,7 @@
         <v>21</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -13520,7 +13526,7 @@
         <v>21</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13535,13 +13541,13 @@
         <v>1613</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -13550,13 +13556,13 @@
         <v>1242</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M56" s="7">
         <v>4</v>
@@ -13565,13 +13571,13 @@
         <v>2855</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -13627,7 +13633,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
